--- a/public/consolidado_productor_1.xlsx
+++ b/public/consolidado_productor_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>QR</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>2019-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-12-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG149"/>
+  <dimension ref="A1:AG150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -15605,6 +15608,105 @@
       <c r="AG149">
         <v>2921200663</v>
       </c>
+    </row>
+    <row r="150" spans="1:33">
+      <c r="A150">
+        <v>7171717171771717171</v>
+      </c>
+      <c r="B150" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>12.0</v>
+      </c>
+      <c r="F150">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" t="s">
+        <v>48</v>
+      </c>
+      <c r="J150">
+        <v>600</v>
+      </c>
+      <c r="K150" t="s">
+        <v>37</v>
+      </c>
+      <c r="L150" t="s">
+        <v>55</v>
+      </c>
+      <c r="M150" t="s">
+        <v>39</v>
+      </c>
+      <c r="N150">
+        <v>0.0</v>
+      </c>
+      <c r="O150">
+        <v>0.0</v>
+      </c>
+      <c r="P150">
+        <v>0.0</v>
+      </c>
+      <c r="Q150">
+        <v>0.0</v>
+      </c>
+      <c r="R150">
+        <v>0.0</v>
+      </c>
+      <c r="S150">
+        <v>0.0</v>
+      </c>
+      <c r="T150">
+        <v>0.0</v>
+      </c>
+      <c r="U150">
+        <v>0.0</v>
+      </c>
+      <c r="V150">
+        <v>0.0</v>
+      </c>
+      <c r="W150">
+        <v>0.0</v>
+      </c>
+      <c r="X150">
+        <v>0.0</v>
+      </c>
+      <c r="Y150">
+        <v>0.0</v>
+      </c>
+      <c r="Z150">
+        <v>0.0</v>
+      </c>
+      <c r="AA150">
+        <v>0.0</v>
+      </c>
+      <c r="AB150">
+        <v>0.0</v>
+      </c>
+      <c r="AC150">
+        <v>8.33</v>
+      </c>
+      <c r="AD150">
+        <v>0.0</v>
+      </c>
+      <c r="AE150">
+        <v>0.0</v>
+      </c>
+      <c r="AF150">
+        <v>0.0</v>
+      </c>
+      <c r="AG150"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
